--- a/results/20250608_153520/benchmark_WT(R).xlsx
+++ b/results/20250608_153520/benchmark_WT(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO11"/>
+  <dimension ref="A1:FE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,6 +894,346 @@
           <t>Epoch 91</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 92</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 93</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 94</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 95</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 96</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 97</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 98</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 99</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 100</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 101</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 102</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 103</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 104</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 105</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 106</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 107</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 108</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 109</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 110</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 111</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 112</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 113</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 114</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 115</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 116</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 117</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 118</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 119</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 120</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 121</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 122</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 123</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 124</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 125</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 126</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 127</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 128</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 129</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 130</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 131</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 132</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 133</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 134</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 135</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 136</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 137</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 138</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 139</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 140</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 141</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 142</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 143</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 144</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 145</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 146</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 147</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 148</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 149</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 150</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 151</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 152</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 153</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 154</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 155</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 156</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 157</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 158</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 159</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1177,6 +1517,210 @@
       <c r="CO2" t="n">
         <v>4969.920014190674</v>
       </c>
+      <c r="CP2" t="n">
+        <v>4963.68000946045</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>5004.960027313233</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>4981.680068206788</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>4955.520056152344</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>4963.440065765381</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>4942.560048675537</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>4920.720030975343</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>4960.080060577393</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>4942.560072326661</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>4980.480039978028</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>4967.040032958985</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>4961.040042877197</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>4966.320043182373</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>4972.560060119629</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>4944.240005493164</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>4933.440034484864</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>4954.320032501221</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>4947.360034942627</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>4950.720029449463</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>4956.000059509278</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>4944.000039672852</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>4973.280043792725</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>4946.880030059815</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>4959.360063171387</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>4958.880031585693</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>4944.000041198731</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>4947.120039367676</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>4926.480053710938</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>4976.160045623779</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>4939.680081176758</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>4949.520027160645</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>4952.640069580078</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>4921.200064849854</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>4923.120068359375</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>4954.80002822876</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>4942.080059814453</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>4957.440023040772</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>4924.560074615479</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>4949.520058441162</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>4994.400038909913</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>4948.080049133301</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>4942.320085144043</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>4930.080056762696</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>4935.120052337646</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>4953.120038604737</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>4969.44005355835</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>4976.880052185059</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>4924.320046997071</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>4931.280016326905</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>4938.480067443848</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>4945.680034637451</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>4944.720031738281</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>4926.240045928956</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>4925.280006408691</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>4973.520043182373</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>4934.880075073243</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>4936.560043334961</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>4931.280029296875</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>4936.08006515503</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>4931.280055236817</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>4920.720081329346</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>4941.360027313232</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>4920.720032501221</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>4924.800043487549</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>4928.880067443848</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>4960.560037994385</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>4932.240052032471</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>4930.800053405762</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1460,6 +2004,210 @@
       <c r="CO3" t="n">
         <v>13175.76014709473</v>
       </c>
+      <c r="CP3" t="n">
+        <v>13114.44005737305</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>13148.52014007569</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>13311.1201538086</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>13169.52005615235</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>13063.32010269165</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>13094.28006515503</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>13119.48000030518</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>13097.16007232666</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>13133.16005096436</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>13065.24007797241</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>13087.80004959107</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>13079.64009857178</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>13072.6799697876</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>13096.20013427734</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>13099.08004379272</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>13015.56002502442</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>13024.92006225586</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>13061.15999603271</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>13165.0800743103</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>13029.96011657715</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>13098.60003585816</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>13094.04009170532</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>13025.40012741089</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>13083.00013809204</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>13086.60006942749</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>13100.04013137817</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>13053.24006652832</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>13063.56002960205</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>13043.64005737305</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>13021.56008758545</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>13113.48009262085</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>13054.20005950928</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>13018.20009841919</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>13046.15998764038</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>13046.04005432129</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>13050.60013122559</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>13074.12010040283</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>13041.72003173828</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>13059.480103302</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>13135.56011047363</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>13041.24010314942</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>13020.12009506226</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>13054.44010696411</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>13118.04002456665</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>13102.32007141113</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>13014.60007324219</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>13119.60008392334</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>13094.40008163452</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>12990.12007522583</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>13051.20011291504</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>13021.32012329102</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>13020.8401008606</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>13007.64004516602</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>13073.52004013062</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>13038.12010345459</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>13063.32010498047</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>13079.7601234436</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>13043.16013336182</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>13063.20008773804</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>13060.20012435913</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>13032.36011810303</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>13072.68006210327</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>13038.84013061524</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>13058.28011245728</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>12994.92007217407</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>13112.28010864258</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>13023.72008056641</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>13097.16012191772</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1743,6 +2491,210 @@
       <c r="CO4" t="n">
         <v>30035.62028503418</v>
       </c>
+      <c r="CP4" t="n">
+        <v>30240.26029052735</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>30057.78019943237</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>30186.78034362793</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>30347.78017196655</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>30049.66032867432</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>29916.54040222168</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>30028.4602645874</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>29957.06036453247</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>29976.42019882202</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>29957.7403427124</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>29950.10021133423</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>30014.02034988403</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>29994.10035095215</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>30118.82029037476</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>30038.94008255005</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>29888.70018157959</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>29872.22044754028</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>29940.46029129028</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>29915.02029876709</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>30013.06036987305</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>30087.82027130127</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>29908.50045928955</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>29885.10028305054</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>29879.10012207031</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>29986.14004592896</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>29903.10018539429</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>29895.42005310059</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>29933.50027313233</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>30051.82020950317</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>29945.90036621094</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>30132.78027877808</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>29831.18009796143</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>29881.97996215821</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>29994.74019546509</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>29932.14027175904</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>29993.5801979065</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>30126.300289917</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>29970.6201965332</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>29968.58002090454</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>30069.66023254395</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>29904.06017684937</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>29846.22015457154</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>29965.10028457642</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>30090.66006393433</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>30050.7002784729</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>29878.22025909424</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>30089.22029495239</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>30007.3403755188</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>29834.10043334961</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>30046.94003829956</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>29872.18025741577</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>30062.1003982544</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>30025.74010543824</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>30319.98019638062</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>29977.98044891357</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>30008.46029968262</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>30114.38023529053</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>29949.86021575928</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>30167.46030426025</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>29862.06008148193</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>29868.0602104187</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>29866.86015930176</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>29776.38030166626</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>29916.46029586792</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>29904.54039916992</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>29955.4202331543</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>30057.58021469116</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>30052.58021774292</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2026,6 +2978,210 @@
       <c r="CO5" t="n">
         <v>49317.24024963379</v>
       </c>
+      <c r="CP5" t="n">
+        <v>49336.16032485962</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>49061.6401008606</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>49796.2799949646</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>49565.48018341065</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>48887.28024139404</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>48819.32037658692</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>49304.64038162232</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>49024.24003372193</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>48750.64045486451</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>48839.32024154664</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>48952.84031143189</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>48783.08020019531</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>48679.0003074646</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>48882.3600692749</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>48950.54004974366</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>48602.08040542603</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>48708.60010757446</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>48578.64028167725</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>48997.52020263672</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>48752.28017883301</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>49047.92011337281</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>48736.00017700196</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>48725.80011291504</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>48751.68042602539</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>49143.34022979737</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>48851.28030090332</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>48920.92011795045</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>48905.38042526245</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>49441.40031356812</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>48767.880418396</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>49289.44026260376</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>48857.15994491577</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>49420.0404335022</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>48807.80023193359</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>48903.16021728516</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>48661.92013626099</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>49149.36018753052</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>48747.04017715454</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>48851.80031433106</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>49059.88006134034</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>48815.00032577515</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>48608.56026229859</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>49000.04017333985</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>49291.64057769776</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>48953.56036224365</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>48723.55999832154</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>49001.92020950318</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>49483.36019744873</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>48674.92011184693</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>49116.86029205323</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>48887.98015670777</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>49052.2002571106</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>49015.56021270753</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>49835.44028549195</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>49017.04043426514</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>48873.1601928711</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>49123.64046401978</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>48845.87995986939</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>49432.76014633179</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>49160.96016769409</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>48771.80008010865</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>48752.40019149781</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>48748.16026687622</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>49249.22026367188</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>48662.32045516968</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>48606.20002365112</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>49595.48034439087</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>49058.16028289795</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2309,6 +3465,210 @@
       <c r="CO6" t="n">
         <v>68251.50023040772</v>
       </c>
+      <c r="CP6" t="n">
+        <v>68583.88043212891</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>68395.28030929566</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>69442.24030456544</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>68988.1803817749</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>67866.62040252685</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>67637.37998657227</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>68490.6203781128</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>68204.14028549194</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>67861.62029571533</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>67832.78025436401</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>68319.96015243531</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>67838.98031082154</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>67524.34024887085</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>68021.06007843018</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>68149.30052566528</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>67608.82001190186</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>67771.18016281129</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>67678.9802696228</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>68066.48028411866</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>67804.3401222229</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>68311.90036773682</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>67576.30007781983</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>67696.20026168824</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>67740.32035369873</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>68123.52034225465</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>68083.46033935547</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>67890.29997329712</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>67859.3801612854</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>68322.38009033204</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>68053.58018798828</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>68127.06058197022</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>67855.98049468994</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>69752.34061660767</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>67760.1401916504</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>67801.38007736206</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>67858.50016632081</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>68291.36020202636</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>67839.90027465821</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>68011.62042236328</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>68346.02036437989</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>67748.52032470703</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>67443.62040939332</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>68183.10046386719</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>68395.94024734497</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>68483.2203453064</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>67716.96013336182</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>68306.21998062135</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>68913.27995910645</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>67753.94008407593</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>68357.70027999878</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>67862.98014678956</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>68200.74038162232</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>68417.68034820557</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>69465.38015060425</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>68055.97974777222</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>67853.06011962891</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>68334.21997528076</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>67781.89980392456</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>69177.26071243286</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>69117.50015487672</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>68067.66058120728</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>67646.58030395508</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>68030.5805595398</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>68600.60049743652</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>67671.66010437012</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>67467.46047515869</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>69720.46002349854</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>68001.5000541687</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2592,6 +3952,210 @@
       <c r="CO7" t="n">
         <v>88431.46030731202</v>
       </c>
+      <c r="CP7" t="n">
+        <v>89069.20040359498</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>88524.5404197693</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>90045.00019226075</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>89476.0400215149</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>87682.60031967163</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>87344.52005462647</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>88787.72026519776</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>88271.14054794313</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>87767.88035736085</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>88086.82026443482</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>88112.24055099487</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>87740.32065887452</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>87261.28020248414</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>87916.20034561158</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>87991.26042022706</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>87066.52053222657</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>87705.50042419434</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>87610.86022567749</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>88179.0604133606</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>87777.34022979737</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>88592.52037277223</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>87496.36029663087</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>87893.08021392823</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>87735.64018936158</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>88544.62014923096</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>87944.80025177002</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>87834.44053955079</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>87729.76059188844</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>88789.84030227661</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>88197.82038726808</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>88482.80051345826</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>88182.24060897827</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>93448.16038208008</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>87854.64037399292</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>87557.96050491334</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>87712.92051467896</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>88803.82048263551</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>87776.20048599243</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>88050.20050888062</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>89055.76015243531</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>87882.42050704957</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>87152.68026275636</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>88155.08065261842</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>88705.10014724731</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>88697.68074951172</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>87975.68042526246</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>88692.90062713623</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>89090.62020492554</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>87436.75998382569</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>88501.90065307618</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>87655.90051116944</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>87957.64015197754</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>88245.40062026978</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>90332.86034545899</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>88017.44048919679</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>88085.36007537843</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>88359.24049377441</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>87895.3608695984</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>89458.26032104493</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>90647.22044754028</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>88429.92052459717</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>87497.04024887085</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>89139.44022521973</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>88984.72031936646</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>87305.84025039674</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>87237.48035049438</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>91257.96024475098</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>88542.32052917482</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2875,6 +4439,210 @@
       <c r="CO8" t="n">
         <v>6864.72004699707</v>
       </c>
+      <c r="CP8" t="n">
+        <v>6822.000053405762</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>6890.640055847169</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>6909.120069122315</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>6960.720091247559</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>6867.600029754639</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>6832.800032043458</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>6815.760075378418</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>6826.320098876953</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>6843.360075378419</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>6807.360023498535</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>6846.960079956055</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>6851.280014038086</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>6838.560064697266</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>6841.200025177002</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>6826.080028533936</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>6822.240023803712</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>6841.440050506592</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>6789.120113372803</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>6855.12006225586</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>6831.120012664795</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>6814.080087280274</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>6821.040041351319</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>6792.000047302246</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>6857.760041809082</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>6874.080029296875</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>6795.120096588135</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>6833.279994201661</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>6812.160039520264</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>6841.440044403076</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>6846.240029144287</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>6839.520051574707</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>6804.960029602051</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>6842.400093078613</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>6834.000124359131</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>6848.880079650879</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>6836.64009475708</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>6826.560057830811</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>6812.400088500977</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>6800.160050964356</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>6892.560028839112</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>6807.360020446778</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>6840.960084533692</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>6819.600058746339</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>6830.160065460205</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>6820.08010559082</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>6787.200023651123</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>6832.320117950439</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>6804.960108947755</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>6786.000075531007</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>6808.559967803955</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>6819.600012207032</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>6809.760048675537</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>6820.080039215089</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>6860.400034332276</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>6871.919996643067</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>6835.440049743653</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>6849.600024414063</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>6844.320004272461</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>6856.800001525879</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>6809.280041503906</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>6878.400035858154</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>6860.640042114258</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>6825.840108489991</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>6837.60000152588</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>6836.400051879883</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>6856.320075225831</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>6816.960028839112</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>6889.200044250489</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3158,6 +4926,210 @@
       <c r="CO9" t="n">
         <v>18968.52019195557</v>
       </c>
+      <c r="CP9" t="n">
+        <v>19122.36016235352</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>19066.44013748169</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>19210.20023040771</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>19770.360181427</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>19213.08015365601</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>19174.92026824951</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>19171.38012313843</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>19013.16019897461</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>18993.24026794434</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>19168.20023803711</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>19131.48020629883</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>19208.52023544312</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>19137.00015945435</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>19121.16013565064</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>19098.4800857544</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>19010.76012878418</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>18988.68019256592</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>19029.24015426636</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>19081.0802658081</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>19093.08025894165</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>19124.04026107788</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>19161.36015319824</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>18969.2400894165</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>19056.96015472412</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>19076.52022247314</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>19091.4002243042</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>18995.16015777588</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>18995.16020126343</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>19049.64015197754</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>19022.04013061523</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>19138.44013137817</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>18954.60013198853</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>18975.00023117066</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>18998.2801147461</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>19054.44016799927</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>19080.60019302368</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>19173.96005706787</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>18999.96010894775</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>18907.08012619019</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>19260.36019897461</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>19007.16011810303</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>18998.76024093628</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>19090.92019271851</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>19066.68003921509</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>19156.20028076172</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>18927.24017562866</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>19108.56022872925</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>19137.84022445679</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>19042.44023361206</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>18911.04018249512</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>19009.08019485474</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>18994.68022613525</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>18989.6402420044</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>19095.60027542114</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>19048.44024505615</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>19021.80016555786</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>19135.32011947632</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>19029.00018386841</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>18966.0001411438</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>19008.12024612427</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>18962.28017501831</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>19043.76020355225</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>18931.32013702393</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>18960.12017669678</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>19039.80018081665</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>19101.72013626099</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>18956.88015136719</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>19148.28020172119</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3441,6 +5413,210 @@
       <c r="CO10" t="n">
         <v>43225.38037109375</v>
       </c>
+      <c r="CP10" t="n">
+        <v>43947.4201461792</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>43578.02022171021</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>43727.14023284912</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>44405.62029418946</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>43314.70031356812</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>43234.50042190552</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>43246.3804359436</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>43192.82037963867</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>43211.58020019531</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>43400.90015716553</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>43242.90038604737</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>43186.78030014038</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>43158.66027526856</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>43168.34031982422</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>43019.82041778565</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>42773.94045181275</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>42835.46032028199</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>43028.74041976929</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>43205.1402671814</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>43108.58039703369</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>43215.50068511963</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>43083.30019607544</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>42792.62033004761</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>42830.06034851074</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>43319.58020782471</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>43124.62029037476</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>43055.70016708374</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>43050.74028396606</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>43120.94020996094</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>43069.22007751465</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>43343.06042327881</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>43129.62038116455</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>42976.50019378663</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>42958.54037094116</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>43043.86028671265</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>43107.22052383423</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>43133.30055770875</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>43047.18040390015</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>43140.14038391114</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>43356.18050994873</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>42759.10023574829</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>43093.38040008545</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>43089.30053482056</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>43330.2202079773</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>43357.94013824463</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>42935.54045333862</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>43285.86044845582</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>43592.90035629272</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>43064.86027069092</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>43047.74032592773</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>42813.10026016235</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>43165.7403289795</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>43128.5003944397</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>43644.74020309449</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>43134.66024093628</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>42996.90043106079</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>43126.06017837525</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>43026.42059707642</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>43467.42017822266</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>42858.70032424927</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>42900.18038711548</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>43075.34037246704</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>42640.98036651612</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>42981.0201461792</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>43035.7003189087</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>42924.90031051636</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>43209.86027832032</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>43218.30024414063</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3723,6 +5899,210 @@
       </c>
       <c r="CO11" t="n">
         <v>69774.70048751832</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>70199.34050064087</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>69406.62058639526</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>70713.08020324707</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>71232.24017715454</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>69089.32060546875</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>68951.76013031007</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>69458.14033508301</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>69178.56059036255</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>69104.68048477173</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>69210.84041900634</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>69364.16036834718</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>69035.68059005738</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>68551.60046691894</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>68791.56038970947</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>69044.36044998169</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>68449.28013687134</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>68781.27995071412</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>68922.60018692017</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>69310.8805053711</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>68808.40037994385</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>69014.2806312561</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>68923.00020675659</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>68419.32035064697</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>68794.12031402589</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>69338.86038055421</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>68860.28043212891</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>69155.44064865113</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>68970.04036788941</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>69478.04042053223</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>68794.64042358399</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>69279.88055191041</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>68807.12034912109</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>69626.96080780029</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>68674.60036468506</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>68943.60035324097</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>68823.00034942628</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>68986.82016296386</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>68695.3205116272</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>68947.76047363282</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>69195.84039154054</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>68577.44032135011</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>68752.48040771484</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>69184.60044555664</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>69657.58039016723</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>69582.52034606934</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>68663.94047851562</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>69318.0403541565</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>69686.92035751343</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>68950.72059707642</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>69415.44042282105</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>68701.40059661865</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>68924.74027328492</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>69048.52038726807</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>70733.78059692383</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>69194.12025985718</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>68923.92031173706</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>69315.12038879395</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>68781.24049377441</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>69700.4202041626</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>69472.12024307251</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>68933.0403831482</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>68925.68061370849</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>68502.16049194336</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>69050.84049758912</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>68636.72057266235</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>68682.72034759521</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>69895.30053253174</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>69418.88014831544</v>
       </c>
     </row>
   </sheetData>
